--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3110955.128024345</v>
+        <v>3220096.381584471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8280493.146793769</v>
+        <v>8302940.022275792</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>241.4618378757407</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>179.4334338975219</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>24.64229915543616</v>
+        <v>14.96483578850492</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137.663455629278</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>140.6466334274993</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1063,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>134.3107246721367</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>141.9548800966482</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>238.0996983696673</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>314.6412842271238</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>33.16485259056321</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>239.3135884893132</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>27.77749086859501</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>203.8966446680757</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>1.294096136280004</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>124.4121185570315</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337068</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>50.0620915095756</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.607010073152018</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>124.0270735093611</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>201.0703383355062</v>
+        <v>54.63637568893558</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>23.41986852521065</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>122.8704329402507</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417127</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3436,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060383</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>14.53306611597334</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>173.574028979552</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833815</v>
+        <v>99.01360035611808</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112.520734025445</v>
+        <v>2013.372896572122</v>
       </c>
       <c r="C2" t="n">
-        <v>1112.520734025445</v>
+        <v>1644.410379631711</v>
       </c>
       <c r="D2" t="n">
-        <v>754.2550354186944</v>
+        <v>1286.14468102496</v>
       </c>
       <c r="E2" t="n">
-        <v>368.4667828204502</v>
+        <v>1286.14468102496</v>
       </c>
       <c r="F2" t="n">
-        <v>361.5212820712467</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>644.3837423617508</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>882.0065235799409</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1178.077090137542</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1483.552196373125</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1758.668415689757</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2277.553464068627</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2267.013758190536</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2013.372896572122</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>2013.372896572122</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>2013.372896572122</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001257</v>
+        <v>2013.372896572122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.520734025445</v>
+        <v>2013.372896572122</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>1161.91199915294</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1425.851530648426</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1711.185401081757</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1949.990352833214</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2437.597454740461</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.587906063767</v>
+        <v>680.7717144893304</v>
       </c>
       <c r="C4" t="n">
-        <v>775.6517231358602</v>
+        <v>511.8355315614235</v>
       </c>
       <c r="D4" t="n">
-        <v>625.5350837235244</v>
+        <v>361.7188921490878</v>
       </c>
       <c r="E4" t="n">
-        <v>477.6219901411313</v>
+        <v>213.8057985666946</v>
       </c>
       <c r="F4" t="n">
-        <v>330.7320426432209</v>
+        <v>66.91585106878429</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.028950037537</v>
+        <v>1083.2127584631</v>
       </c>
       <c r="Y4" t="n">
-        <v>1126.236370894007</v>
+        <v>862.4201793195701</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1671.539306344596</v>
+        <v>1671.186287608629</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>1302.223770668217</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2447.925459648563</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2447.925459648563</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2447.925459648563</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190805</v>
+        <v>2447.925459648563</v>
       </c>
       <c r="X5" t="n">
-        <v>1810.593301929725</v>
+        <v>2447.925459648563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1810.593301929725</v>
+        <v>2057.786127672751</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1996.997356780105</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2246.474084645124</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.8214259065184</v>
+        <v>651.206477989754</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786115</v>
+        <v>482.2702950618472</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>482.2702950618472</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>334.357201479454</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>187.4672539815437</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>187.4672539815437</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1390.473945815687</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1167.495465010423</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U7" t="n">
-        <v>1167.495465010423</v>
+        <v>1161.416227170245</v>
       </c>
       <c r="V7" t="n">
-        <v>912.8109768045357</v>
+        <v>1161.416227170245</v>
       </c>
       <c r="W7" t="n">
-        <v>912.8109768045357</v>
+        <v>871.9990571332842</v>
       </c>
       <c r="X7" t="n">
-        <v>684.8214259065184</v>
+        <v>871.9990571332842</v>
       </c>
       <c r="Y7" t="n">
-        <v>684.8214259065184</v>
+        <v>651.206477989754</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1118.442187461269</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="C8" t="n">
-        <v>1118.442187461269</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="D8" t="n">
-        <v>1118.442187461269</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>1118.442187461269</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>707.456282671661</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>291.7515323959499</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1630.125239700725</v>
       </c>
       <c r="Y8" t="n">
-        <v>1505.04202752539</v>
+        <v>1312.305760683429</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>861.0792809845966</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1617.794731802665</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1952.723412518196</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>549.8365243120206</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>516.3366732104416</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>516.3366732104416</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>1067.243245246999</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>777.826075210038</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>549.8365243120206</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>549.8365243120206</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.8412329032296</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2418.905011995821</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2236.050177650725</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2016.448712673667</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1727.373486017864</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1472.688997811978</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1183.271827775017</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>955.2822768769995</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.4896977334694</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5263,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,10 +5278,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2445.655915765836</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2262.801081420741</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5503,13 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5518,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,13 +5530,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057155</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>301.5721730233224</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>301.5721730233224</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5768,34 +5770,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1872.470231673185</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>580.8993044876688</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>432.9862109052757</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>286.0962634073653</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C25" t="n">
-        <v>634.334587849125</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>634.334587849125</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2321.683211348583</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2102.081746371524</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1813.006519715722</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1558.322031509835</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6266,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3025.687952571559</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3474.470082613106</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X28" t="n">
-        <v>3246.480531715089</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y28" t="n">
-        <v>3025.687952571559</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6947,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7125,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1419.02150088521</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7494,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1802.133778510961</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1547.449290305074</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>2848.020469709692</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>3445.398957336244</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336244</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>417.6289352913128</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>191.1953109993754</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>87.99713246345976</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>265.0304328515146</v>
+        <v>309.1863928326899</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>200.7458546176088</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>186.5911984019041</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>220.1297156654641</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.59775584152668</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>21.81301072096147</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>65.08115057384168</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>41.11201973523735</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>115.4620467826932</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>56.99921249228345</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>85.45266000108478</v>
+        <v>231.8866226476554</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>263.1031298113804</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>25.74504007796166</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>110.003342051665</v>
+        <v>32.89260457060013</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,7 +25365,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>271.9899322206177</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>55.21102825632967</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393069</v>
+        <v>66.51053793615077</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729248.7790673228</v>
+        <v>752061.2222185587</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729248.7790673228</v>
+        <v>729054.9565227051</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729248.7790673228</v>
+        <v>729054.9565227051</v>
       </c>
     </row>
     <row r="5">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138665</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138665</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287549</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.274728755</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287551</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.274728755</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="M2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165055</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
@@ -26430,28 +26432,28 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.4805316951</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695019</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-619983.5975010223</v>
+        <v>-470402.3009562987</v>
       </c>
       <c r="C6" t="n">
-        <v>494768.1860748981</v>
+        <v>323099.3447545954</v>
       </c>
       <c r="D6" t="n">
-        <v>494768.1860748976</v>
+        <v>495863.70454449</v>
       </c>
       <c r="E6" t="n">
-        <v>91357.82274860737</v>
+        <v>97954.3966274027</v>
       </c>
       <c r="F6" t="n">
+        <v>598843.2643731527</v>
+      </c>
+      <c r="G6" t="n">
         <v>598843.2643731531</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>598843.2643731533</v>
       </c>
-      <c r="H6" t="n">
-        <v>598843.2643731527</v>
-      </c>
       <c r="I6" t="n">
+        <v>598843.2643731534</v>
+      </c>
+      <c r="J6" t="n">
+        <v>429429.2475471049</v>
+      </c>
+      <c r="K6" t="n">
+        <v>598843.2643731534</v>
+      </c>
+      <c r="L6" t="n">
         <v>598843.2643731529</v>
       </c>
-      <c r="J6" t="n">
-        <v>431238.0865631704</v>
-      </c>
-      <c r="K6" t="n">
-        <v>598843.2643731529</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>467958.8074689176</v>
+      </c>
+      <c r="N6" t="n">
         <v>598843.2643731532</v>
       </c>
-      <c r="M6" t="n">
-        <v>466235.9706442262</v>
-      </c>
-      <c r="N6" t="n">
-        <v>598843.2643731531</v>
-      </c>
       <c r="O6" t="n">
-        <v>598843.2643731536</v>
+        <v>598843.2643731532</v>
       </c>
       <c r="P6" t="n">
         <v>598843.2643731533</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>170.0858648972133</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>30.4642583316616</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>141.664300889368</v>
+        <v>151.6737188943024</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.0703860342026</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>65.91227251826143</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>12.85033553931027</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>52.70758026508929</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>62.91885419273808</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>71.59665442892981</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>134.0819685080646</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46.91356563188745</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29995,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.26672618754473e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32081,25 +32083,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565753</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q21" t="n">
-        <v>362.5355639238086</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M24" t="n">
-        <v>379.4203056753705</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>579.8936048175474</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>610.054682604365</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>354.6246161155308</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>153.9346579803286</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>600.4551148476376</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>318.775540847371</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0158803980272</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>472.1264104786144</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>528.6559836563374</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121309</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q21" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36437,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M24" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>448.5518927342141</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3220096.381584471</v>
+        <v>3215940.195276506</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>179.4334338975219</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>272.7888244133943</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>28.15826128764012</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>14.96483578850492</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>269.2439711427771</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>140.6466334274993</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>134.3107246721367</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>76.60129660960703</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>313.4409126298447</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>314.6412842271238</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>33.16485259056321</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
@@ -1311,7 +1311,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>33.93089591116146</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>203.8966446680757</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.294096136280004</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>120.1447214650588</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.3722917337068</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>124.0270735093611</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>54.63637568893558</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>23.41986852521065</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>11.56087338713362</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417127</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>112.5005260950196</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>85.08368458989422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.01360035611808</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2013.372896572122</v>
+        <v>1588.214085525555</v>
       </c>
       <c r="C2" t="n">
-        <v>1644.410379631711</v>
+        <v>1219.251568585143</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.14468102496</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.14468102496</v>
+        <v>475.1976173801486</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353527</v>
+        <v>64.21171259054108</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272273</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>644.3837423617508</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>882.0065235799409</v>
+        <v>928.7179450719127</v>
       </c>
       <c r="M2" t="n">
-        <v>1178.077090137542</v>
+        <v>1569.741154691807</v>
       </c>
       <c r="N2" t="n">
-        <v>1483.552196373125</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689757</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068627</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4357,25 +4357,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2267.013758190536</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2013.372896572122</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>2013.372896572122</v>
+        <v>2314.448499056749</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.372896572122</v>
+        <v>1961.679843786635</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.372896572122</v>
+        <v>1588.214085525555</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.372896572122</v>
+        <v>1588.214085525555</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.91199915294</v>
+        <v>408.1293476730608</v>
       </c>
       <c r="M3" t="n">
-        <v>1425.851530648426</v>
+        <v>767.3556565167222</v>
       </c>
       <c r="N3" t="n">
-        <v>1711.185401081757</v>
+        <v>1408.378866136616</v>
       </c>
       <c r="O3" t="n">
-        <v>1949.990352833214</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
-        <v>2437.597454740461</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.7717144893304</v>
+        <v>833.9774911502419</v>
       </c>
       <c r="C4" t="n">
-        <v>511.8355315614235</v>
+        <v>665.041308222335</v>
       </c>
       <c r="D4" t="n">
-        <v>361.7188921490878</v>
+        <v>514.9246688099993</v>
       </c>
       <c r="E4" t="n">
-        <v>213.8057985666946</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>66.91585106878429</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4488,52 +4488,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>1083.2127584631</v>
+        <v>1083.212758463106</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.4201793195701</v>
+        <v>862.4201793195754</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1671.186287608629</v>
+        <v>1473.61902063398</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.223770668217</v>
+        <v>1104.656503693568</v>
       </c>
       <c r="D5" t="n">
-        <v>943.9580720614667</v>
+        <v>746.3908050868176</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>746.3908050868176</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>335.4049002972101</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>323.7634625377461</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4570,19 +4570,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4597,22 +4597,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2447.925459648563</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2447.925459648563</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2447.925459648563</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>2447.925459648563</v>
+        <v>2237.224110870871</v>
       </c>
       <c r="X5" t="n">
-        <v>2447.925459648563</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.786127672751</v>
+        <v>1473.61902063398</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344687</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1996.997356780105</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2246.474084645124</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>651.206477989754</v>
+        <v>939.1780282016797</v>
       </c>
       <c r="C7" t="n">
-        <v>482.2702950618472</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="D7" t="n">
-        <v>482.2702950618472</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="E7" t="n">
-        <v>334.357201479454</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="F7" t="n">
-        <v>187.4672539815437</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G7" t="n">
-        <v>187.4672539815437</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4752,25 +4752,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1161.416227170245</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.416227170245</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>871.9990571332842</v>
+        <v>1569.608623073467</v>
       </c>
       <c r="X7" t="n">
-        <v>871.9990571332842</v>
+        <v>1341.619072175449</v>
       </c>
       <c r="Y7" t="n">
-        <v>651.206477989754</v>
+        <v>1120.826493031919</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>925.7059206193069</v>
+        <v>755.9562932262875</v>
       </c>
       <c r="C8" t="n">
-        <v>925.7059206193069</v>
+        <v>386.9937762858758</v>
       </c>
       <c r="D8" t="n">
-        <v>925.7059206193069</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="E8" t="n">
-        <v>539.9176680210627</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135509</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
         <v>2075.818195082062</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.590997961805</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.590997961805</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X8" t="n">
-        <v>1630.125239700725</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1312.305760683429</v>
+        <v>1142.556133290409</v>
       </c>
     </row>
     <row r="9">
@@ -4868,43 +4868,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682818</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845966</v>
+        <v>861.0792809845964</v>
       </c>
       <c r="M9" t="n">
         <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802665</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.723412518196</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>549.8365243120206</v>
+        <v>1016.553075282091</v>
       </c>
       <c r="C10" t="n">
-        <v>516.3366732104416</v>
+        <v>847.6168923541842</v>
       </c>
       <c r="D10" t="n">
-        <v>516.3366732104416</v>
+        <v>697.5002529418484</v>
       </c>
       <c r="E10" t="n">
-        <v>368.4235796280485</v>
+        <v>549.5871593594553</v>
       </c>
       <c r="F10" t="n">
-        <v>368.4235796280485</v>
+        <v>402.6972118615449</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>234.7210231234343</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>86.07348755631614</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452886</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1321.927733452886</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1067.243245246999</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>777.826075210038</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="X10" t="n">
-        <v>549.8365243120206</v>
+        <v>1418.994119255861</v>
       </c>
       <c r="Y10" t="n">
-        <v>549.8365243120206</v>
+        <v>1198.201540112331</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1005.373692624026</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>784.5811134804959</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290469</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5430,10 +5430,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2445.655915765836</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2262.801081420741</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.199616443682</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5731,28 +5731,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5761,40 +5761,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2321.683211348583</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2102.081746371524</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1813.006519715722</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1558.322031509835</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1268.904861472874</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.904861472874</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1378.513107377167</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1150.52355647915</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>929.7309773356195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232838</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1410.044932795071</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.055381897054</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.2628027535235</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7356,25 +7356,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
         <v>985.5125840134626</v>
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,28 +7423,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7499,13 +7499,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>417.6289352913128</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>191.1953109993754</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037393</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>138.4934316048494</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>96.24927004866026</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.99713246345976</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326899</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.7458546176088</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>220.1297156654641</v>
+        <v>35.3897227018706</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>21.81301072096147</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.08115057384168</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>56.99921249228345</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>231.8866226476554</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>263.1031298113804</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>32.89260457060013</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>55.21102825632967</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51053793615077</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>752061.2222185587</v>
+        <v>752061.2222185583</v>
       </c>
     </row>
     <row r="3">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312483</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312481</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151604</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695014</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695077</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
@@ -26444,22 +26444,22 @@
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695019</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-470402.3009562987</v>
+        <v>-470402.3009563013</v>
       </c>
       <c r="C6" t="n">
-        <v>323099.3447545954</v>
+        <v>323099.3447545984</v>
       </c>
       <c r="D6" t="n">
-        <v>495863.70454449</v>
+        <v>495863.7045444907</v>
       </c>
       <c r="E6" t="n">
-        <v>97954.3966274027</v>
+        <v>97607.01737304582</v>
       </c>
       <c r="F6" t="n">
-        <v>598843.2643731527</v>
+        <v>598495.8851187963</v>
       </c>
       <c r="G6" t="n">
-        <v>598843.2643731531</v>
+        <v>598495.8851187963</v>
       </c>
       <c r="H6" t="n">
-        <v>598843.2643731533</v>
+        <v>598495.8851187964</v>
       </c>
       <c r="I6" t="n">
-        <v>598843.2643731534</v>
+        <v>598495.885118796</v>
       </c>
       <c r="J6" t="n">
-        <v>429429.2475471049</v>
+        <v>429081.8682927481</v>
       </c>
       <c r="K6" t="n">
-        <v>598843.2643731534</v>
+        <v>598495.885118796</v>
       </c>
       <c r="L6" t="n">
-        <v>598843.2643731529</v>
+        <v>598495.8851187963</v>
       </c>
       <c r="M6" t="n">
-        <v>467958.8074689176</v>
+        <v>467611.4282145611</v>
       </c>
       <c r="N6" t="n">
-        <v>598843.2643731532</v>
+        <v>598495.8851187965</v>
       </c>
       <c r="O6" t="n">
-        <v>598843.2643731532</v>
+        <v>598495.8851187963</v>
       </c>
       <c r="P6" t="n">
-        <v>598843.2643731533</v>
+        <v>598495.8851187965</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,46 +26959,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>428.2691096918292</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>428.269109691829</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>30.4642583316616</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>54.9634340567406</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>151.6737188942972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>151.6737188943024</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>31.54231610568269</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>65.91227251826143</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12.85033553931027</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>209.921701726984</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>41.2421289908383</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>71.59665442892981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>134.0819685080646</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>70.55976360183968</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.26672618754473e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31524,25 +31524,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
         <v>407.9506271086971</v>
@@ -31551,7 +31551,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31603,22 +31603,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31630,13 +31630,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31700,10 +31700,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
         <v>76.19324275662508</v>
@@ -31712,10 +31712,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>602.8420149078241</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565753</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>354.6246161155308</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>447.0541449741276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>362.8548574178398</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>153.9346579803286</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35029,13 +35029,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352465</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>318.775540847371</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057228</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>472.1264104786144</v>
+        <v>287.3864175150209</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225505</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35348,10 +35348,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121309</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3215940.195276506</v>
+        <v>3217700.72557929</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885219</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>272.7888244133943</v>
+        <v>161.08772696207</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833759</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.15826128764012</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>28.15826128763287</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>95.54953108573869</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>269.2439711427771</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.71437374394026</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>60.86538463674769</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>76.60129660960703</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>313.4409126298447</v>
+        <v>313.440912629846</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>33.93089591116146</v>
+        <v>33.93089591116166</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.019807611472247</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>91.87132188693977</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>120.1447214650588</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>53.30076123484924</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>164.9367233701397</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>112.5005260950196</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.214085525555</v>
+        <v>1314.443636826408</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.251568585143</v>
+        <v>1314.443636826408</v>
       </c>
       <c r="D2" t="n">
-        <v>860.9858699783929</v>
+        <v>956.1779382196578</v>
       </c>
       <c r="E2" t="n">
-        <v>475.1976173801486</v>
+        <v>570.3896856214135</v>
       </c>
       <c r="F2" t="n">
-        <v>64.21171259054108</v>
+        <v>159.403780831806</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>125.8997233870219</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>287.6947354520153</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719127</v>
+        <v>730.2783389764124</v>
       </c>
       <c r="M2" t="n">
-        <v>1569.741154691807</v>
+        <v>1371.301548596307</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216193</v>
+        <v>2012.324758216201</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>2287.440977532833</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2487.745304821934</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V2" t="n">
-        <v>2314.448499056749</v>
+        <v>2427.277890421724</v>
       </c>
       <c r="W2" t="n">
-        <v>1961.679843786635</v>
+        <v>2074.50923515161</v>
       </c>
       <c r="X2" t="n">
-        <v>1588.214085525555</v>
+        <v>1701.04347689053</v>
       </c>
       <c r="Y2" t="n">
-        <v>1588.214085525555</v>
+        <v>1701.04347689053</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093853</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369546</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>585.1891840496851</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730608</v>
+        <v>794.7800573025143</v>
       </c>
       <c r="M3" t="n">
-        <v>767.3556565167222</v>
+        <v>1304.992176928763</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136616</v>
+        <v>1590.326047362094</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>1829.13099911355</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4442,10 +4442,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.9774911502419</v>
+        <v>862.4201793195681</v>
       </c>
       <c r="C4" t="n">
-        <v>665.041308222335</v>
+        <v>693.4839963916612</v>
       </c>
       <c r="D4" t="n">
-        <v>514.9246688099993</v>
+        <v>543.3673569793255</v>
       </c>
       <c r="E4" t="n">
-        <v>367.0115752276062</v>
+        <v>395.4542633969323</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>248.564315899022</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>80.24254349214587</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>80.24254349214587</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018365</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341293</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666686</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092685</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357423</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="X4" t="n">
-        <v>1083.212758463106</v>
+        <v>1083.212758463098</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.4201793195754</v>
+        <v>862.4201793195681</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1473.61902063398</v>
+        <v>1702.21049532384</v>
       </c>
       <c r="C5" t="n">
-        <v>1104.656503693568</v>
+        <v>1333.247978383428</v>
       </c>
       <c r="D5" t="n">
-        <v>746.3908050868176</v>
+        <v>974.9822797766778</v>
       </c>
       <c r="E5" t="n">
-        <v>746.3908050868176</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="F5" t="n">
-        <v>335.4049002972101</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G5" t="n">
-        <v>323.7634625377461</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J5" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539972</v>
@@ -4585,34 +4585,34 @@
         <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="W5" t="n">
-        <v>2237.224110870871</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="X5" t="n">
-        <v>1863.758352609791</v>
+        <v>2092.349827299652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1473.61902063398</v>
+        <v>1702.21049532384</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>965.5645858344694</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1996.997356780106</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2246.474084645125</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>939.1780282016797</v>
+        <v>727.1359052451312</v>
       </c>
       <c r="C7" t="n">
-        <v>770.2418452737728</v>
+        <v>558.1997223172243</v>
       </c>
       <c r="D7" t="n">
-        <v>620.1252058614371</v>
+        <v>408.0830829048886</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>260.1699893224954</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>113.2800418245851</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080556</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121974</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225447</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317426</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1391.602671897099</v>
+        <v>1391.6026718971</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.608623073467</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.619072175449</v>
+        <v>1129.576949218901</v>
       </c>
       <c r="Y7" t="n">
-        <v>1120.826493031919</v>
+        <v>908.7843700753709</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>755.9562932262875</v>
+        <v>755.9562932262888</v>
       </c>
       <c r="C8" t="n">
-        <v>386.9937762858758</v>
+        <v>386.9937762858771</v>
       </c>
       <c r="D8" t="n">
-        <v>70.38679383148718</v>
+        <v>70.3867938314872</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148718</v>
+        <v>70.3867938314872</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>63.44129308228372</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104773</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135505</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4825,31 +4825,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>2258.929878797416</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527301</v>
+        <v>1906.161223527302</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.695465266221</v>
+        <v>1532.695465266222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.556133290409</v>
+        <v>1142.556133290411</v>
       </c>
     </row>
     <row r="9">
@@ -4868,37 +4868,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682816</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845964</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802664</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.723412518195</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4941,46 +4941,46 @@
         <v>1016.553075282091</v>
       </c>
       <c r="C10" t="n">
-        <v>847.6168923541842</v>
+        <v>847.6168923541844</v>
       </c>
       <c r="D10" t="n">
-        <v>697.5002529418484</v>
+        <v>697.5002529418487</v>
       </c>
       <c r="E10" t="n">
-        <v>549.5871593594553</v>
+        <v>549.5871593594555</v>
       </c>
       <c r="F10" t="n">
-        <v>402.6972118615449</v>
+        <v>402.6972118615452</v>
       </c>
       <c r="G10" t="n">
-        <v>234.7210231234343</v>
+        <v>234.7210231234345</v>
       </c>
       <c r="H10" t="n">
-        <v>86.07348755631614</v>
+        <v>86.07348755631637</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -5029,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.8388927589092</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2442.902671851501</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2260.047837506405</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2040.446372529346</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U13" t="n">
-        <v>1751.371145873544</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V13" t="n">
-        <v>1496.686657667657</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1207.269487630696</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>979.2799367326791</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.4873575891489</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2326.078227070189</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,10 +6214,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6645,13 +6645,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6697,22 +6697,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7019,13 +7019,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
         <v>2001.151557821488</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037393</v>
+        <v>207.031133642634</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>348.4370131942366</v>
       </c>
       <c r="N2" t="n">
-        <v>138.4934316048494</v>
+        <v>338.9374781659714</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>26.19461818159829</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96.24927004866026</v>
+        <v>248.760190031074</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326899</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>200.7458546176073</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906574</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>35.3897227018706</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.35543909864944</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>75.37549921168807</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>166.0397529241853</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>127.7255247667954</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5874149221291134</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>752061.2222185583</v>
+        <v>752061.2222185589</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729054.9565227051</v>
+        <v>729054.956522705</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729054.9565227051</v>
+        <v>729054.956522705</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138665</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138663</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="15">
@@ -26316,43 +26316,43 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312482</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312483</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753948</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898964</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457502</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695014</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695077</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
@@ -26450,7 +26450,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699083</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-470402.3009563013</v>
+        <v>-470402.3009562981</v>
       </c>
       <c r="C6" t="n">
-        <v>323099.3447545984</v>
+        <v>323099.344754594</v>
       </c>
       <c r="D6" t="n">
         <v>495863.7045444907</v>
       </c>
       <c r="E6" t="n">
-        <v>97607.01737304582</v>
+        <v>97919.65870196732</v>
       </c>
       <c r="F6" t="n">
-        <v>598495.8851187963</v>
+        <v>598808.5264477173</v>
       </c>
       <c r="G6" t="n">
-        <v>598495.8851187963</v>
+        <v>598808.526447717</v>
       </c>
       <c r="H6" t="n">
-        <v>598495.8851187964</v>
+        <v>598808.5264477176</v>
       </c>
       <c r="I6" t="n">
-        <v>598495.885118796</v>
+        <v>598808.5264477179</v>
       </c>
       <c r="J6" t="n">
-        <v>429081.8682927481</v>
+        <v>429394.5096216694</v>
       </c>
       <c r="K6" t="n">
-        <v>598495.885118796</v>
+        <v>598808.5264477177</v>
       </c>
       <c r="L6" t="n">
-        <v>598495.8851187963</v>
+        <v>598808.5264477178</v>
       </c>
       <c r="M6" t="n">
-        <v>467611.4282145611</v>
+        <v>467924.0695434826</v>
       </c>
       <c r="N6" t="n">
-        <v>598495.8851187965</v>
+        <v>598808.5264477174</v>
       </c>
       <c r="O6" t="n">
-        <v>598495.8851187963</v>
+        <v>598808.5264477179</v>
       </c>
       <c r="P6" t="n">
-        <v>598495.8851187965</v>
+        <v>598808.5264477178</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522382</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918287</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -27438,7 +27438,7 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>54.9634340567406</v>
+        <v>166.6645315080649</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.6737188942972</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>86.62111521185356</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>286.3808389865231</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>31.54231610568269</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>105.4310422139818</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>209.921701726984</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.2421289908383</v>
+        <v>41.24212899083693</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>70.55976360183968</v>
+        <v>70.55976360183945</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066885</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611355</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014918</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658663</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485875</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072703</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674098</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743142</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307749</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605097</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911956</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257139</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433284</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028901</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.9638617996921</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993399</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777186</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855552</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932497</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965165</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189582</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31630,13 +31630,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31688,7 +31688,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979552</v>
@@ -31700,22 +31700,22 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578897</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,7 +33748,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>74.84835158000217</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161549</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352464</v>
+        <v>447.0541449741386</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="N2" t="n">
-        <v>447.0541449741276</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269007</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>103.2802639586397</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.6622745597322</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643742</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>211.7079527806355</v>
       </c>
       <c r="M3" t="n">
-        <v>362.8548574178398</v>
+        <v>515.3657774002513</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407382</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812694</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>492.5324261689353</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527177</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882741</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000436</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873427</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171363</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821471</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482248</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>318.7755408473697</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>362.3108833671837</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>287.3864175150209</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
         <v>328.1069739656114</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597958</v>
@@ -35345,13 +35345,13 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587134</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,7 +37396,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
